--- a/statics/receipt.xlsx
+++ b/statics/receipt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,14 +12,17 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="57" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="59" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$O$20</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Melayani Cash &amp; Credit Eletronik dan Furniture</t>
   </si>
@@ -99,9 +102,6 @@
     <t>Telp. 0858-6355-5270</t>
   </si>
   <si>
-    <t>Website https://cvnazwa.com</t>
-  </si>
-  <si>
     <t>Tertagih</t>
   </si>
   <si>
@@ -145,6 +145,28 @@
   </si>
   <si>
     <t>Penagih, ttd</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Website </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://cvnazwa.com</t>
+    </r>
+  </si>
+  <si>
+    <t>*pastikan kwitansi tidak hilang jika suatu saat diperlukan untuk bukti pembayaran</t>
+  </si>
+  <si>
+    <t>*perusahaan tidak bertanggung jawab atas segala kelalaian konsumen</t>
   </si>
 </sst>
 </file>
@@ -160,22 +182,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -209,6 +216,22 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -322,154 +345,171 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,7 +552,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
@@ -537,7 +577,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="180975" y="9525"/>
+          <a:off x="276225" y="9525"/>
           <a:ext cx="823011" cy="599438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -841,13 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4">
-    <tabColor rgb="FF002060"/>
-  </sheetPr>
-  <dimension ref="B1:Q27"/>
+  <dimension ref="B1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:O13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,544 +904,517 @@
     <col min="13" max="13" width="1" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" customWidth="1"/>
     <col min="15" max="15" width="3.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="24" max="24" width="4.7109375" customWidth="1"/>
-    <col min="25" max="25" width="4.140625" customWidth="1"/>
+    <col min="22" max="22" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+      <c r="C1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="22" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="19" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-    </row>
-    <row r="4" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="20" t="s">
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+    </row>
+    <row r="4" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="19" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-    </row>
-    <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="20" t="s">
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+    </row>
+    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="19" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-    </row>
-    <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="20" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+    </row>
+    <row r="6" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+    </row>
+    <row r="7" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-    </row>
-    <row r="7" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="19" t="s">
+      <c r="F11" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="49"/>
+      <c r="V11" s="15"/>
+    </row>
+    <row r="12" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-    </row>
-    <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="18" t="s">
+      <c r="F12" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
+      <c r="V12" s="15"/>
+    </row>
+    <row r="13" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F13" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="55"/>
+      <c r="V13" s="15"/>
+    </row>
+    <row r="14" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="60"/>
+      <c r="V14" s="15"/>
+    </row>
+    <row r="15" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="12" t="s">
+      <c r="F16" s="29"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+    </row>
+    <row r="17" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="31" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29" t="s">
+      <c r="F19" s="24"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="20"/>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="44" t="s">
+      <c r="I20" s="27"/>
+      <c r="J20" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="27"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="37" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V37" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="E16:F16"/>
+  <mergeCells count="45">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="C1:F3"/>
+    <mergeCell ref="H1:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="J9:N9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="J10:N10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="F11:O11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:O12"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C1:F3"/>
-    <mergeCell ref="H1:O2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:O14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="C21:N21"/>
+    <mergeCell ref="C22:N22"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:O20"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0.3543307086614173" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="127" orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>

--- a/statics/receipt.xlsx
+++ b/statics/receipt.xlsx
@@ -84,9 +84,6 @@
     <t>(janji bayar)</t>
   </si>
   <si>
-    <t>Kode Cetak</t>
-  </si>
-  <si>
     <t>(kode cetak)</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>*perusahaan tidak bertanggung jawab atas segala kelalaian konsumen</t>
+  </si>
+  <si>
+    <t>Kode Arah</t>
   </si>
 </sst>
 </file>
@@ -382,32 +382,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -416,100 +510,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,7 +884,7 @@
   <dimension ref="B1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:O11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,46 +909,46 @@
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" s="13"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="4"/>
       <c r="H3" s="9" t="s">
         <v>10</v>
@@ -956,23 +956,23 @@
       <c r="I3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
     </row>
     <row r="4" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
-      <c r="C4" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="C4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9" t="s">
         <v>15</v>
@@ -980,23 +980,23 @@
       <c r="I4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9" t="s">
         <v>16</v>
@@ -1004,23 +1004,23 @@
       <c r="I5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
     </row>
     <row r="6" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
-      <c r="C6" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="C6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9" t="s">
         <v>17</v>
@@ -1028,53 +1028,53 @@
       <c r="I6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
     </row>
     <row r="7" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
-      <c r="C7" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="C7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
+      <c r="J7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
     </row>
     <row r="8" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="10"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1082,19 +1082,19 @@
       <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="D9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1102,111 +1102,111 @@
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="D10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46" t="s">
+      <c r="C11" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="49"/>
+      <c r="F11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
       <c r="V11" s="15"/>
     </row>
     <row r="12" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51" t="s">
+      <c r="C12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
+      <c r="F12" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="35"/>
       <c r="V12" s="15"/>
     </row>
     <row r="13" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51" t="s">
+      <c r="C13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="55"/>
+      <c r="F13" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="36"/>
       <c r="V13" s="15"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="60"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="40"/>
       <c r="V14" s="15"/>
     </row>
     <row r="15" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1227,182 +1227,149 @@
     </row>
     <row r="16" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="29"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="42"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="32" t="s">
+      <c r="I16" s="44"/>
+      <c r="J16" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="34"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="25"/>
+      <c r="C17" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="49"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="20"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="53"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="20"/>
+      <c r="H18" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="53"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="53"/>
     </row>
     <row r="19" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="24"/>
+      <c r="C19" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="57"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="20"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="53"/>
     </row>
     <row r="20" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="26" t="s">
+      <c r="H20" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="59"/>
+      <c r="J20" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="27"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="59"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
     </row>
     <row r="37" spans="22:22" x14ac:dyDescent="0.25">
       <c r="V37" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="C1:F3"/>
-    <mergeCell ref="H1:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:O11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:O12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:O17"/>
     <mergeCell ref="C21:N21"/>
     <mergeCell ref="C22:N22"/>
     <mergeCell ref="C18:D18"/>
@@ -1415,6 +1382,39 @@
     <mergeCell ref="J19:O19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:O20"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:O12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:O14"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:O11"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="C1:F3"/>
+    <mergeCell ref="H1:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="J4:O4"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0.3543307086614173" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="127" orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
